--- a/DOCS/Anomalies utilisateurs.xlsx
+++ b/DOCS/Anomalies utilisateurs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-14\Partage\GTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-14\Partage\GTA\DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="562">
   <si>
     <t>fichier</t>
   </si>
@@ -822,6 +822,897 @@
   </si>
   <si>
     <t>UO de rattachement pas dans la liste</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>AGEZ</t>
+  </si>
+  <si>
+    <t>ADELAIDE</t>
+  </si>
+  <si>
+    <t>ADELAIDE.AGEZ@afpa.fr</t>
+  </si>
+  <si>
+    <t>BATSIK</t>
+  </si>
+  <si>
+    <t>JEAN-PAUL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>JEAN-PAUL.BATSIK@afpa.fr</t>
+  </si>
+  <si>
+    <t>BEAUGRAND</t>
+  </si>
+  <si>
+    <t>ANNE-FREDERIQUE</t>
+  </si>
+  <si>
+    <t>ANNE-FREDERIQUE.BEAUGRAND@afpa.fr</t>
+  </si>
+  <si>
+    <t>BECU</t>
+  </si>
+  <si>
+    <t>JEAN-BERNARD</t>
+  </si>
+  <si>
+    <t>JEAN-BERNARD.BECU@afpa.fr</t>
+  </si>
+  <si>
+    <t>BENSAADA</t>
+  </si>
+  <si>
+    <t>MARIE-CATHERINE</t>
+  </si>
+  <si>
+    <t>MARIE-CATHERINE.BENSAADA@afpa.fr</t>
+  </si>
+  <si>
+    <t>BLONDEEL</t>
+  </si>
+  <si>
+    <t>MARIE-HELENE</t>
+  </si>
+  <si>
+    <t>MARIE-HELENE.BLONDEEL@afpa.fr</t>
+  </si>
+  <si>
+    <t>BOCQUET</t>
+  </si>
+  <si>
+    <t>ROSE-MARIE</t>
+  </si>
+  <si>
+    <t>ROSE-MARIE.BOCQUET@afpa.fr</t>
+  </si>
+  <si>
+    <t>BOMBLE</t>
+  </si>
+  <si>
+    <t>JEAN-RENE</t>
+  </si>
+  <si>
+    <t>JEAN-RENE.BOMBLE@afpa.fr</t>
+  </si>
+  <si>
+    <t>BONNET</t>
+  </si>
+  <si>
+    <t>BERGUE-VERONIQUE</t>
+  </si>
+  <si>
+    <t>BERGUE-VERONIQUE.BONNET@afpa.fr</t>
+  </si>
+  <si>
+    <t>BONVOISIN</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>NICOLAS.BONVOISIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>BREMONT</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>VALERIE.BREMONT@afpa.fr</t>
+  </si>
+  <si>
+    <t>BUTTERDROGHE</t>
+  </si>
+  <si>
+    <t>HERVE</t>
+  </si>
+  <si>
+    <t>HERVE.BUTTERDROGHE@afpa.fr</t>
+  </si>
+  <si>
+    <t>CARON</t>
+  </si>
+  <si>
+    <t>LAURENCE</t>
+  </si>
+  <si>
+    <t>LAURENCE.CARON@afpa.fr</t>
+  </si>
+  <si>
+    <t>CAZIN</t>
+  </si>
+  <si>
+    <t>ANNE-FREDERIQUE.CAZIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>COLIN</t>
+  </si>
+  <si>
+    <t>AUDREY</t>
+  </si>
+  <si>
+    <t>AUDREY.COLIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>CRISPILS</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>STEPHANIE.CRISPILS@afpa.fr</t>
+  </si>
+  <si>
+    <t>DANEL</t>
+  </si>
+  <si>
+    <t>SYLVIE</t>
+  </si>
+  <si>
+    <t>SYLVIE.DANEL@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEBUCHY</t>
+  </si>
+  <si>
+    <t>STEPHANIE.DEBUCHY@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEBUE</t>
+  </si>
+  <si>
+    <t>FRANCOIS</t>
+  </si>
+  <si>
+    <t>FRANCOIS.DEBUE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEGARDIN</t>
+  </si>
+  <si>
+    <t>CINDY</t>
+  </si>
+  <si>
+    <t>CINDY.DEGARDIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEGROOTE</t>
+  </si>
+  <si>
+    <t>ELODIE</t>
+  </si>
+  <si>
+    <t>ELODIE.DEGROOTE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEHEM</t>
+  </si>
+  <si>
+    <t>JEAN-BERNARD.DEHEM@afpa.fr</t>
+  </si>
+  <si>
+    <t>DELATTRE</t>
+  </si>
+  <si>
+    <t>MARIE-CATHERINE.DELATTRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DELESCLUSE</t>
+  </si>
+  <si>
+    <t>MARIE-HELENE.DELESCLUSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>ROSE-MARIE.DELESCLUSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DELPIERRE</t>
+  </si>
+  <si>
+    <t>JEAN-RENE.DELPIERRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEREBREU</t>
+  </si>
+  <si>
+    <t>BERGUE-VERONIQUE.DEREBREU@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEREMETZ</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>THOMAS.DEREMETZ@afpa.fr</t>
+  </si>
+  <si>
+    <t>DESCHAMPS</t>
+  </si>
+  <si>
+    <t>CHRISTELLE</t>
+  </si>
+  <si>
+    <t>CHRISTELLE.DESCHAMPS@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEVRED</t>
+  </si>
+  <si>
+    <t>ROMAIN</t>
+  </si>
+  <si>
+    <t>ROMAIN.DEVRED@afpa.fr</t>
+  </si>
+  <si>
+    <t>DEWET</t>
+  </si>
+  <si>
+    <t>VIRGINIE</t>
+  </si>
+  <si>
+    <t>VIRGINIE.DEWET@afpa.fr</t>
+  </si>
+  <si>
+    <t>DISSAUX</t>
+  </si>
+  <si>
+    <t>KARINE</t>
+  </si>
+  <si>
+    <t>KARINE.DISSAUX@afpa.fr</t>
+  </si>
+  <si>
+    <t>DISTANTI</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>ANNE.DISTANTI@afpa.fr</t>
+  </si>
+  <si>
+    <t>DOIGNEAUX</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>SABRINA.DOIGNEAUX@afpa.fr</t>
+  </si>
+  <si>
+    <t>DUCHESNE</t>
+  </si>
+  <si>
+    <t>OLIVIER</t>
+  </si>
+  <si>
+    <t>OLIVIER.DUCHESNE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DUFOSSE</t>
+  </si>
+  <si>
+    <t>ESTHERINA</t>
+  </si>
+  <si>
+    <t>ESTHERINA.DUFOSSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>DUQUENOY</t>
+  </si>
+  <si>
+    <t>LUDOVIC</t>
+  </si>
+  <si>
+    <t>LUDOVIC.DUQUENOY@afpa.fr</t>
+  </si>
+  <si>
+    <t>EVRARD</t>
+  </si>
+  <si>
+    <t>BLANDINE</t>
+  </si>
+  <si>
+    <t>BLANDINE.EVRARD@afpa.fr</t>
+  </si>
+  <si>
+    <t>FARDEL</t>
+  </si>
+  <si>
+    <t>FANNY</t>
+  </si>
+  <si>
+    <t>FANNY.FARDEL@afpa.fr</t>
+  </si>
+  <si>
+    <t>FAUQUEMBERGUE</t>
+  </si>
+  <si>
+    <t>CATHERINE</t>
+  </si>
+  <si>
+    <t>CATHERINE.FAUQUEMBERGUE@afpa.fr</t>
+  </si>
+  <si>
+    <t>FAUT</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>ALEXANDRE.FAUT@afpa.fr</t>
+  </si>
+  <si>
+    <t>FERAND</t>
+  </si>
+  <si>
+    <t>FRANCK</t>
+  </si>
+  <si>
+    <t>FRANCK.FERAND@afpa.fr</t>
+  </si>
+  <si>
+    <t>FERARE</t>
+  </si>
+  <si>
+    <t>HERVE.FERARE@afpa.fr</t>
+  </si>
+  <si>
+    <t>FICQUET</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE.FICQUET@afpa.fr</t>
+  </si>
+  <si>
+    <t>FONTOWICZ</t>
+  </si>
+  <si>
+    <t>FREDERIC</t>
+  </si>
+  <si>
+    <t>FREDERIC.FONTOWICZ@afpa.fr</t>
+  </si>
+  <si>
+    <t>FOURE</t>
+  </si>
+  <si>
+    <t>OLIVIER.FOURE@afpa.fr</t>
+  </si>
+  <si>
+    <t>FOURNET</t>
+  </si>
+  <si>
+    <t>HELENE</t>
+  </si>
+  <si>
+    <t>HELENE.FOURNET@afpa.fr</t>
+  </si>
+  <si>
+    <t>GALANT</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>MARIE.GALANT@afpa.fr</t>
+  </si>
+  <si>
+    <t>GENU</t>
+  </si>
+  <si>
+    <t>VALERIE.GENU@afpa.fr</t>
+  </si>
+  <si>
+    <t>GHARBI</t>
+  </si>
+  <si>
+    <t>KARIM</t>
+  </si>
+  <si>
+    <t>KARIM.GHARBI@afpa.fr</t>
+  </si>
+  <si>
+    <t>GOBFERT</t>
+  </si>
+  <si>
+    <t>SANDRINE</t>
+  </si>
+  <si>
+    <t>SANDRINE.GOBFERT@afpa.fr</t>
+  </si>
+  <si>
+    <t>GUILLOT</t>
+  </si>
+  <si>
+    <t>SOPHIE</t>
+  </si>
+  <si>
+    <t>SOPHIE.GUILLOT@afpa.fr</t>
+  </si>
+  <si>
+    <t>HANNEQUIN</t>
+  </si>
+  <si>
+    <t>SYLVIE.HANNEQUIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>HAVARD</t>
+  </si>
+  <si>
+    <t>FRANCIS</t>
+  </si>
+  <si>
+    <t>FRANCIS.HAVARD@afpa.fr</t>
+  </si>
+  <si>
+    <t>HOUITTE</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE.HOUITTE@afpa.fr</t>
+  </si>
+  <si>
+    <t>HOUZIAUX</t>
+  </si>
+  <si>
+    <t>ALBIN</t>
+  </si>
+  <si>
+    <t>ALBIN.HOUZIAUX@afpa.fr</t>
+  </si>
+  <si>
+    <t>JACQUART</t>
+  </si>
+  <si>
+    <t>SYLVIE.JACQUART@afpa.fr</t>
+  </si>
+  <si>
+    <t>JACQUET</t>
+  </si>
+  <si>
+    <t>JACQUELINE</t>
+  </si>
+  <si>
+    <t>JACQUELINE.JACQUET@afpa.fr</t>
+  </si>
+  <si>
+    <t>JOLY</t>
+  </si>
+  <si>
+    <t>CHRISTELLE.JOLY@afpa.fr</t>
+  </si>
+  <si>
+    <t>JOUSSE</t>
+  </si>
+  <si>
+    <t>HERVE.JOUSSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>KHEMSINE</t>
+  </si>
+  <si>
+    <t>YANIS</t>
+  </si>
+  <si>
+    <t>YANIS.KHEMSINE@afpa.fr</t>
+  </si>
+  <si>
+    <t>KOWALEWSKI</t>
+  </si>
+  <si>
+    <t>CEDRIC</t>
+  </si>
+  <si>
+    <t>CEDRIC.KOWALEWSKI@afpa.fr</t>
+  </si>
+  <si>
+    <t>LACHEVRE</t>
+  </si>
+  <si>
+    <t>DOROTHEE</t>
+  </si>
+  <si>
+    <t>DOROTHEE.LACHEVRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>LAFORCE</t>
+  </si>
+  <si>
+    <t>ALBERT</t>
+  </si>
+  <si>
+    <t>ALBERT.LAFORCE@afpa.fr</t>
+  </si>
+  <si>
+    <t>LAGOUARDILLE</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>ANDRE.LAGOUARDILLE@afpa.fr</t>
+  </si>
+  <si>
+    <t>LANDRAGIN</t>
+  </si>
+  <si>
+    <t>MARIE-CATHERINE.LANDRAGIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>LEBERRE</t>
+  </si>
+  <si>
+    <t>JULIEN</t>
+  </si>
+  <si>
+    <t>JULIEN.LEBERRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>LECLERCQ</t>
+  </si>
+  <si>
+    <t>SYLVIE.LECLERCQ@afpa.fr</t>
+  </si>
+  <si>
+    <t>LHERBIER</t>
+  </si>
+  <si>
+    <t>XAVIER</t>
+  </si>
+  <si>
+    <t>XAVIER.LHERBIER@afpa.fr</t>
+  </si>
+  <si>
+    <t>LOGEZ</t>
+  </si>
+  <si>
+    <t>CAROLE</t>
+  </si>
+  <si>
+    <t>CAROLE.LOGEZ@afpa.fr</t>
+  </si>
+  <si>
+    <t>MARECHAL</t>
+  </si>
+  <si>
+    <t>MARYLINE</t>
+  </si>
+  <si>
+    <t>MARYLINE.MARECHAL@afpa.fr</t>
+  </si>
+  <si>
+    <t>MELSEN</t>
+  </si>
+  <si>
+    <t>MARYLINE.MELSEN@afpa.fr</t>
+  </si>
+  <si>
+    <t>MEURY</t>
+  </si>
+  <si>
+    <t>KATY</t>
+  </si>
+  <si>
+    <t>KATY.MEURY@afpa.fr</t>
+  </si>
+  <si>
+    <t>MILLE</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE.MILLE@afpa.fr</t>
+  </si>
+  <si>
+    <t>MONSTERLET</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>VANESSA.MONSTERLET@afpa.fr</t>
+  </si>
+  <si>
+    <t>MONTUY</t>
+  </si>
+  <si>
+    <t>AMANDINE</t>
+  </si>
+  <si>
+    <t>AMANDINE.MONTUY@afpa.fr</t>
+  </si>
+  <si>
+    <t>MORMENTYN</t>
+  </si>
+  <si>
+    <t>VIRGINIE.MORMENTYN@afpa.fr</t>
+  </si>
+  <si>
+    <t>OFFRE</t>
+  </si>
+  <si>
+    <t>PASCAL</t>
+  </si>
+  <si>
+    <t>PASCAL.OFFRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>PETIT</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>CHARLOTTE.PETIT@afpa.fr</t>
+  </si>
+  <si>
+    <t>PLANCKE</t>
+  </si>
+  <si>
+    <t>MARIE.PLANCKE@afpa.fr</t>
+  </si>
+  <si>
+    <t>PODGORSKI</t>
+  </si>
+  <si>
+    <t>AUDREY.PODGORSKI@afpa.fr</t>
+  </si>
+  <si>
+    <t>POIX</t>
+  </si>
+  <si>
+    <t>MARTINE</t>
+  </si>
+  <si>
+    <t>MARTINE.POIX@afpa.fr</t>
+  </si>
+  <si>
+    <t>POUDRE</t>
+  </si>
+  <si>
+    <t>CLEMENT</t>
+  </si>
+  <si>
+    <t>CLEMENT.POUDRE@afpa.fr</t>
+  </si>
+  <si>
+    <t>POURE</t>
+  </si>
+  <si>
+    <t>BARBARA</t>
+  </si>
+  <si>
+    <t>BARBARA.POURE@afpa.fr</t>
+  </si>
+  <si>
+    <t>REYMBAUT</t>
+  </si>
+  <si>
+    <t>MARIE-HELENE.REYMBAUT@afpa.fr</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>VALERIE.RICHARD@afpa.fr</t>
+  </si>
+  <si>
+    <t>RIVET</t>
+  </si>
+  <si>
+    <t>PIERRE</t>
+  </si>
+  <si>
+    <t>PIERRE.RIVET@afpa.fr</t>
+  </si>
+  <si>
+    <t>ROUVILLOIS</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>DAVID.ROUVILLOIS@afpa.fr</t>
+  </si>
+  <si>
+    <t>SCHMIDLIN</t>
+  </si>
+  <si>
+    <t>ROSE-MARIE.SCHMIDLIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>SINNAEVE</t>
+  </si>
+  <si>
+    <t>ARNAUD</t>
+  </si>
+  <si>
+    <t>ARNAUD.SINNAEVE@afpa.fr</t>
+  </si>
+  <si>
+    <t>SONNECK</t>
+  </si>
+  <si>
+    <t>JEAN-RENE.SONNECK@afpa.fr</t>
+  </si>
+  <si>
+    <t>TAFFIN</t>
+  </si>
+  <si>
+    <t>DAVID.TAFFIN@afpa.fr</t>
+  </si>
+  <si>
+    <t>TAILAME</t>
+  </si>
+  <si>
+    <t>PIERRE.TAILAME@afpa.fr</t>
+  </si>
+  <si>
+    <t>TENEUR</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>ALINE.TENEUR@afpa.fr</t>
+  </si>
+  <si>
+    <t>ANDRE.THOMAS@afpa.fr</t>
+  </si>
+  <si>
+    <t>FREDERIC.THOMAS@afpa.fr</t>
+  </si>
+  <si>
+    <t>VANBAELINGHEM</t>
+  </si>
+  <si>
+    <t>CHRISTOPHE.VANBAELINGHEM@afpa.fr</t>
+  </si>
+  <si>
+    <t>VANDENBERGUE</t>
+  </si>
+  <si>
+    <t>VERONIQUE</t>
+  </si>
+  <si>
+    <t>VERONIQUE.VANDENBERGUE@afpa.fr</t>
+  </si>
+  <si>
+    <t>VEROVE</t>
+  </si>
+  <si>
+    <t>CELINE</t>
+  </si>
+  <si>
+    <t>CELINE.VEROVE@afpa.fr</t>
+  </si>
+  <si>
+    <t>CELINE2</t>
+  </si>
+  <si>
+    <t>CELINE2.VEROVE@afpa.fr</t>
+  </si>
+  <si>
+    <t>VERRAES</t>
+  </si>
+  <si>
+    <t>DELPHINE</t>
+  </si>
+  <si>
+    <t>DELPHINE.VERRAES@afpa.fr</t>
+  </si>
+  <si>
+    <t>VEZILIER</t>
+  </si>
+  <si>
+    <t>PHILIPPE</t>
+  </si>
+  <si>
+    <t>PHILIPPE.VEZILIER@afpa.fr</t>
+  </si>
+  <si>
+    <t>VILCOT</t>
+  </si>
+  <si>
+    <t>ANNE.VILCOT@afpa.fr</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>CATHERINE.VINCENT@afpa.fr</t>
+  </si>
+  <si>
+    <t>VITSE</t>
+  </si>
+  <si>
+    <t>BETTINA</t>
+  </si>
+  <si>
+    <t>BETTINA.VITSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>XAVIER.VITSE@afpa.fr</t>
+  </si>
+  <si>
+    <t>VULLO</t>
+  </si>
+  <si>
+    <t>MYRIAME</t>
+  </si>
+  <si>
+    <t>MYRIAME.VULLO@afpa.fr</t>
+  </si>
+  <si>
+    <t>WALLOT</t>
+  </si>
+  <si>
+    <t>PASCALE</t>
+  </si>
+  <si>
+    <t>PASCALE.WALLOT@afpa.fr</t>
+  </si>
+  <si>
+    <t>ZAGDOUDI</t>
+  </si>
+  <si>
+    <t>SALSABIL</t>
+  </si>
+  <si>
+    <t>SALSABIL.ZAGDOUDI@afpa.fr</t>
+  </si>
+  <si>
+    <t>ZIEMNIAK</t>
+  </si>
+  <si>
+    <t>ELISABETH</t>
+  </si>
+  <si>
+    <t>ELISABETH.ZIEMNIAK@afpa.fr</t>
+  </si>
+  <si>
+    <t>BALLET</t>
+  </si>
+  <si>
+    <t>STEPHANE</t>
+  </si>
+  <si>
+    <t>STEPHANE.BALLET@afpa.fr</t>
   </si>
 </sst>
 </file>
@@ -1140,19 +2031,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="K1" sqref="K1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1171,8 +2064,23 @@
       <c r="F1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1188,8 +2096,20 @@
       <c r="F2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1199,8 +2119,23 @@
       <c r="F3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" t="s">
+        <v>273</v>
+      </c>
+      <c r="O3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1210,8 +2145,20 @@
       <c r="F4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1221,8 +2168,20 @@
       <c r="F5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>278</v>
+      </c>
+      <c r="M5" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -1232,8 +2191,20 @@
       <c r="F6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -1243,8 +2214,20 @@
       <c r="F7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M7" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -1254,8 +2237,20 @@
       <c r="F8" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" t="s">
+        <v>288</v>
+      </c>
+      <c r="O8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -1265,8 +2260,20 @@
       <c r="F9" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>290</v>
+      </c>
+      <c r="M9" t="s">
+        <v>291</v>
+      </c>
+      <c r="O9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1279,8 +2286,20 @@
       <c r="F10" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>293</v>
+      </c>
+      <c r="M10" t="s">
+        <v>294</v>
+      </c>
+      <c r="O10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -1293,8 +2312,20 @@
       <c r="F11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>296</v>
+      </c>
+      <c r="M11" t="s">
+        <v>297</v>
+      </c>
+      <c r="O11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>214</v>
       </c>
@@ -1307,8 +2338,20 @@
       <c r="F12" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>299</v>
+      </c>
+      <c r="M12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>219</v>
       </c>
@@ -1321,8 +2364,20 @@
       <c r="F13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M13" t="s">
+        <v>303</v>
+      </c>
+      <c r="O13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1338,8 +2393,20 @@
       <c r="F14" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" t="s">
+        <v>306</v>
+      </c>
+      <c r="O14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1355,8 +2422,23 @@
       <c r="F15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>308</v>
+      </c>
+      <c r="M15" t="s">
+        <v>276</v>
+      </c>
+      <c r="N15" t="s">
+        <v>273</v>
+      </c>
+      <c r="O15" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1372,8 +2454,20 @@
       <c r="F16" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" t="s">
+        <v>311</v>
+      </c>
+      <c r="O16" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>247</v>
       </c>
@@ -1389,8 +2483,20 @@
       <c r="F17" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>313</v>
+      </c>
+      <c r="M17" t="s">
+        <v>314</v>
+      </c>
+      <c r="O17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1409,8 +2515,20 @@
       <c r="F18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>316</v>
+      </c>
+      <c r="M18" t="s">
+        <v>317</v>
+      </c>
+      <c r="O18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1429,8 +2547,20 @@
       <c r="F19" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>319</v>
+      </c>
+      <c r="M19" t="s">
+        <v>314</v>
+      </c>
+      <c r="O19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1449,8 +2579,20 @@
       <c r="F20" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" t="s">
+        <v>321</v>
+      </c>
+      <c r="M20" t="s">
+        <v>322</v>
+      </c>
+      <c r="O20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1469,8 +2611,20 @@
       <c r="F21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
+        <v>324</v>
+      </c>
+      <c r="M21" t="s">
+        <v>325</v>
+      </c>
+      <c r="O21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1489,8 +2643,20 @@
       <c r="F22" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" t="s">
+        <v>327</v>
+      </c>
+      <c r="M22" t="s">
+        <v>328</v>
+      </c>
+      <c r="O22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1509,8 +2675,23 @@
       <c r="F23" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>330</v>
+      </c>
+      <c r="M23" t="s">
+        <v>279</v>
+      </c>
+      <c r="N23" t="s">
+        <v>273</v>
+      </c>
+      <c r="O23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1529,8 +2710,20 @@
       <c r="F24" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>332</v>
+      </c>
+      <c r="M24" t="s">
+        <v>282</v>
+      </c>
+      <c r="O24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1549,8 +2742,20 @@
       <c r="F25" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" t="s">
+        <v>334</v>
+      </c>
+      <c r="M25" t="s">
+        <v>285</v>
+      </c>
+      <c r="O25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -1569,8 +2774,20 @@
       <c r="F26" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
+        <v>334</v>
+      </c>
+      <c r="M26" t="s">
+        <v>288</v>
+      </c>
+      <c r="O26" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1589,8 +2806,20 @@
       <c r="F27" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" t="s">
+        <v>337</v>
+      </c>
+      <c r="M27" t="s">
+        <v>291</v>
+      </c>
+      <c r="O27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -1609,8 +2838,20 @@
       <c r="F28" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L28" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" t="s">
+        <v>294</v>
+      </c>
+      <c r="O28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -1629,8 +2870,20 @@
       <c r="F29" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" t="s">
+        <v>341</v>
+      </c>
+      <c r="M29" t="s">
+        <v>342</v>
+      </c>
+      <c r="O29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -1649,8 +2902,20 @@
       <c r="F30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" t="s">
+        <v>344</v>
+      </c>
+      <c r="M30" t="s">
+        <v>345</v>
+      </c>
+      <c r="O30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -1669,8 +2934,20 @@
       <c r="F31" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" t="s">
+        <v>348</v>
+      </c>
+      <c r="O31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -1689,8 +2966,20 @@
       <c r="F32" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" t="s">
+        <v>350</v>
+      </c>
+      <c r="M32" t="s">
+        <v>351</v>
+      </c>
+      <c r="O32" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -1709,8 +2998,20 @@
       <c r="F33" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>75</v>
+      </c>
+      <c r="L33" t="s">
+        <v>353</v>
+      </c>
+      <c r="M33" t="s">
+        <v>354</v>
+      </c>
+      <c r="O33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1729,8 +3030,20 @@
       <c r="F34" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" t="s">
+        <v>356</v>
+      </c>
+      <c r="M34" t="s">
+        <v>357</v>
+      </c>
+      <c r="O34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -1749,8 +3062,20 @@
       <c r="F35" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" t="s">
+        <v>359</v>
+      </c>
+      <c r="M35" t="s">
+        <v>360</v>
+      </c>
+      <c r="O35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>165</v>
       </c>
@@ -1769,8 +3094,20 @@
       <c r="F36" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" t="s">
+        <v>362</v>
+      </c>
+      <c r="M36" t="s">
+        <v>363</v>
+      </c>
+      <c r="O36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -1789,8 +3126,20 @@
       <c r="F37" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" t="s">
+        <v>365</v>
+      </c>
+      <c r="M37" t="s">
+        <v>366</v>
+      </c>
+      <c r="O37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -1809,8 +3158,20 @@
       <c r="F38" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" t="s">
+        <v>368</v>
+      </c>
+      <c r="M38" t="s">
+        <v>369</v>
+      </c>
+      <c r="O38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -1829,8 +3190,20 @@
       <c r="F39" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" t="s">
+        <v>371</v>
+      </c>
+      <c r="M39" t="s">
+        <v>372</v>
+      </c>
+      <c r="O39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>212</v>
       </c>
@@ -1849,8 +3222,20 @@
       <c r="F40" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" t="s">
+        <v>375</v>
+      </c>
+      <c r="O40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>216</v>
       </c>
@@ -1869,8 +3254,20 @@
       <c r="F41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" t="s">
+        <v>378</v>
+      </c>
+      <c r="O41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>232</v>
       </c>
@@ -1889,8 +3286,20 @@
       <c r="F42" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>96</v>
+      </c>
+      <c r="L42" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" t="s">
+        <v>381</v>
+      </c>
+      <c r="O42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -1909,8 +3318,20 @@
       <c r="F43" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" t="s">
+        <v>383</v>
+      </c>
+      <c r="M43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1926,8 +3347,20 @@
       <c r="E44">
         <v>164</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1943,8 +3376,20 @@
       <c r="E45">
         <v>159</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>103</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="s">
+        <v>389</v>
+      </c>
+      <c r="O45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1960,8 +3405,20 @@
       <c r="E46">
         <v>191</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1977,8 +3434,20 @@
       <c r="E47">
         <v>139</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" t="s">
+        <v>394</v>
+      </c>
+      <c r="M47" t="s">
+        <v>363</v>
+      </c>
+      <c r="O47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
@@ -1994,8 +3463,20 @@
       <c r="E48">
         <v>191</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
+        <v>396</v>
+      </c>
+      <c r="M48" t="s">
+        <v>397</v>
+      </c>
+      <c r="O48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2011,8 +3492,20 @@
       <c r="E49">
         <v>191</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" t="s">
+        <v>399</v>
+      </c>
+      <c r="M49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2028,8 +3521,20 @@
       <c r="E50">
         <v>178</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="s">
+        <v>300</v>
+      </c>
+      <c r="O50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2045,8 +3550,20 @@
       <c r="E51">
         <v>161</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>404</v>
+      </c>
+      <c r="M51" t="s">
+        <v>405</v>
+      </c>
+      <c r="O51" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2062,8 +3579,20 @@
       <c r="E52">
         <v>176</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>119</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="s">
+        <v>408</v>
+      </c>
+      <c r="O52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2079,8 +3608,20 @@
       <c r="E53">
         <v>160</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" t="s">
+        <v>410</v>
+      </c>
+      <c r="M53" t="s">
+        <v>411</v>
+      </c>
+      <c r="O53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2096,8 +3637,20 @@
       <c r="E54">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>124</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="s">
+        <v>317</v>
+      </c>
+      <c r="O54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2113,8 +3666,20 @@
       <c r="E55">
         <v>191</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>127</v>
+      </c>
+      <c r="L55" t="s">
+        <v>415</v>
+      </c>
+      <c r="M55" t="s">
+        <v>416</v>
+      </c>
+      <c r="O55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -2130,8 +3695,20 @@
       <c r="E56">
         <v>159</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s">
+        <v>418</v>
+      </c>
+      <c r="M56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2147,8 +3724,20 @@
       <c r="E57">
         <v>163</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>131</v>
+      </c>
+      <c r="L57" t="s">
+        <v>420</v>
+      </c>
+      <c r="M57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2164,8 +3753,20 @@
       <c r="E58">
         <v>164</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="s">
+        <v>317</v>
+      </c>
+      <c r="O58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2181,8 +3782,20 @@
       <c r="E59">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>136</v>
+      </c>
+      <c r="L59" t="s">
+        <v>425</v>
+      </c>
+      <c r="M59" t="s">
+        <v>426</v>
+      </c>
+      <c r="O59" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2198,8 +3811,20 @@
       <c r="E60">
         <v>191</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L60" t="s">
+        <v>428</v>
+      </c>
+      <c r="M60" t="s">
+        <v>345</v>
+      </c>
+      <c r="O60" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -2215,8 +3840,20 @@
       <c r="E61">
         <v>191</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" t="s">
+        <v>430</v>
+      </c>
+      <c r="M61" t="s">
+        <v>303</v>
+      </c>
+      <c r="O61" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -2232,8 +3869,20 @@
       <c r="E62">
         <v>191</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>144</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="s">
+        <v>433</v>
+      </c>
+      <c r="O62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -2249,8 +3898,20 @@
       <c r="E63">
         <v>191</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>147</v>
+      </c>
+      <c r="L63" t="s">
+        <v>435</v>
+      </c>
+      <c r="M63" t="s">
+        <v>436</v>
+      </c>
+      <c r="O63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -2266,8 +3927,20 @@
       <c r="E64">
         <v>167</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" t="s">
+        <v>438</v>
+      </c>
+      <c r="M64" t="s">
+        <v>439</v>
+      </c>
+      <c r="O64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>87</v>
       </c>
@@ -2283,8 +3956,20 @@
       <c r="E65">
         <v>159</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65" t="s">
+        <v>441</v>
+      </c>
+      <c r="M65" t="s">
+        <v>442</v>
+      </c>
+      <c r="O65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -2300,8 +3985,20 @@
       <c r="E66">
         <v>191</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>154</v>
+      </c>
+      <c r="L66" t="s">
+        <v>444</v>
+      </c>
+      <c r="M66" t="s">
+        <v>445</v>
+      </c>
+      <c r="O66" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -2317,8 +4014,23 @@
       <c r="E67">
         <v>164</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>156</v>
+      </c>
+      <c r="L67" t="s">
+        <v>447</v>
+      </c>
+      <c r="M67" t="s">
+        <v>282</v>
+      </c>
+      <c r="N67" t="s">
+        <v>273</v>
+      </c>
+      <c r="O67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -2334,8 +4046,20 @@
       <c r="E68">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>158</v>
+      </c>
+      <c r="L68" t="s">
+        <v>449</v>
+      </c>
+      <c r="M68" t="s">
+        <v>450</v>
+      </c>
+      <c r="O68" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -2351,8 +4075,20 @@
       <c r="E69">
         <v>177</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>160</v>
+      </c>
+      <c r="L69" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="s">
+        <v>317</v>
+      </c>
+      <c r="O69" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>107</v>
       </c>
@@ -2368,8 +4104,20 @@
       <c r="E70">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>162</v>
+      </c>
+      <c r="L70" t="s">
+        <v>454</v>
+      </c>
+      <c r="M70" t="s">
+        <v>455</v>
+      </c>
+      <c r="O70" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -2385,8 +4133,20 @@
       <c r="E71">
         <v>165</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" t="s">
+        <v>458</v>
+      </c>
+      <c r="O71" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -2402,8 +4162,20 @@
       <c r="E72">
         <v>191</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>167</v>
+      </c>
+      <c r="L72" t="s">
+        <v>460</v>
+      </c>
+      <c r="M72" t="s">
+        <v>461</v>
+      </c>
+      <c r="O72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -2419,8 +4191,20 @@
       <c r="E73">
         <v>128</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>169</v>
+      </c>
+      <c r="L73" t="s">
+        <v>463</v>
+      </c>
+      <c r="M73" t="s">
+        <v>461</v>
+      </c>
+      <c r="O73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -2436,8 +4220,20 @@
       <c r="E74">
         <v>159</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>171</v>
+      </c>
+      <c r="L74" t="s">
+        <v>465</v>
+      </c>
+      <c r="M74" t="s">
+        <v>466</v>
+      </c>
+      <c r="O74" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>125</v>
       </c>
@@ -2453,8 +4249,20 @@
       <c r="E75">
         <v>111</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>173</v>
+      </c>
+      <c r="L75" t="s">
+        <v>468</v>
+      </c>
+      <c r="M75" t="s">
+        <v>389</v>
+      </c>
+      <c r="O75" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>130</v>
       </c>
@@ -2470,8 +4278,20 @@
       <c r="E76">
         <v>108</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L76" t="s">
+        <v>470</v>
+      </c>
+      <c r="M76" t="s">
+        <v>471</v>
+      </c>
+      <c r="O76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -2487,8 +4307,20 @@
       <c r="E77">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>177</v>
+      </c>
+      <c r="L77" t="s">
+        <v>473</v>
+      </c>
+      <c r="M77" t="s">
+        <v>474</v>
+      </c>
+      <c r="O77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>137</v>
       </c>
@@ -2504,8 +4336,20 @@
       <c r="E78">
         <v>191</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>179</v>
+      </c>
+      <c r="L78" t="s">
+        <v>476</v>
+      </c>
+      <c r="M78" t="s">
+        <v>351</v>
+      </c>
+      <c r="O78" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -2521,8 +4365,20 @@
       <c r="E79">
         <v>163</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>182</v>
+      </c>
+      <c r="L79" t="s">
+        <v>478</v>
+      </c>
+      <c r="M79" t="s">
+        <v>479</v>
+      </c>
+      <c r="O79" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>145</v>
       </c>
@@ -2538,8 +4394,20 @@
       <c r="E80">
         <v>177</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>184</v>
+      </c>
+      <c r="L80" t="s">
+        <v>481</v>
+      </c>
+      <c r="M80" t="s">
+        <v>482</v>
+      </c>
+      <c r="O80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -2555,8 +4423,20 @@
       <c r="E81">
         <v>111</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>186</v>
+      </c>
+      <c r="L81" t="s">
+        <v>484</v>
+      </c>
+      <c r="M81" t="s">
+        <v>400</v>
+      </c>
+      <c r="O81" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -2572,8 +4452,20 @@
       <c r="E82">
         <v>169</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>188</v>
+      </c>
+      <c r="L82" t="s">
+        <v>486</v>
+      </c>
+      <c r="M82" t="s">
+        <v>311</v>
+      </c>
+      <c r="O82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2589,8 +4481,20 @@
       <c r="E83">
         <v>161</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>190</v>
+      </c>
+      <c r="L83" t="s">
+        <v>488</v>
+      </c>
+      <c r="M83" t="s">
+        <v>489</v>
+      </c>
+      <c r="O83" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -2606,8 +4510,20 @@
       <c r="E84">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>192</v>
+      </c>
+      <c r="L84" t="s">
+        <v>491</v>
+      </c>
+      <c r="M84" t="s">
+        <v>492</v>
+      </c>
+      <c r="O84" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2623,8 +4539,20 @@
       <c r="E85">
         <v>191</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>194</v>
+      </c>
+      <c r="L85" t="s">
+        <v>494</v>
+      </c>
+      <c r="M85" t="s">
+        <v>495</v>
+      </c>
+      <c r="O85" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>168</v>
       </c>
@@ -2640,8 +4568,23 @@
       <c r="E86">
         <v>159</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>197</v>
+      </c>
+      <c r="L86" t="s">
+        <v>497</v>
+      </c>
+      <c r="M86" t="s">
+        <v>285</v>
+      </c>
+      <c r="N86" t="s">
+        <v>273</v>
+      </c>
+      <c r="O86" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -2657,8 +4600,20 @@
       <c r="E87">
         <v>144</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>199</v>
+      </c>
+      <c r="L87" t="s">
+        <v>499</v>
+      </c>
+      <c r="M87" t="s">
+        <v>300</v>
+      </c>
+      <c r="O87" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>174</v>
       </c>
@@ -2674,8 +4629,20 @@
       <c r="E88">
         <v>191</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>201</v>
+      </c>
+      <c r="L88" t="s">
+        <v>501</v>
+      </c>
+      <c r="M88" t="s">
+        <v>502</v>
+      </c>
+      <c r="O88" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -2691,8 +4658,20 @@
       <c r="E89">
         <v>191</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>204</v>
+      </c>
+      <c r="L89" t="s">
+        <v>504</v>
+      </c>
+      <c r="M89" t="s">
+        <v>505</v>
+      </c>
+      <c r="O89" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -2708,8 +4687,23 @@
       <c r="E90">
         <v>169</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>207</v>
+      </c>
+      <c r="L90" t="s">
+        <v>507</v>
+      </c>
+      <c r="M90" t="s">
+        <v>288</v>
+      </c>
+      <c r="N90" t="s">
+        <v>273</v>
+      </c>
+      <c r="O90" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -2725,8 +4719,20 @@
       <c r="E91">
         <v>144</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>209</v>
+      </c>
+      <c r="L91" t="s">
+        <v>509</v>
+      </c>
+      <c r="M91" t="s">
+        <v>510</v>
+      </c>
+      <c r="O91" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>185</v>
       </c>
@@ -2742,8 +4748,23 @@
       <c r="E92">
         <v>177</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>211</v>
+      </c>
+      <c r="L92" t="s">
+        <v>512</v>
+      </c>
+      <c r="M92" t="s">
+        <v>291</v>
+      </c>
+      <c r="N92" t="s">
+        <v>273</v>
+      </c>
+      <c r="O92" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>187</v>
       </c>
@@ -2759,8 +4780,20 @@
       <c r="E93">
         <v>191</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>213</v>
+      </c>
+      <c r="L93" t="s">
+        <v>514</v>
+      </c>
+      <c r="M93" t="s">
+        <v>505</v>
+      </c>
+      <c r="O93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>189</v>
       </c>
@@ -2776,8 +4809,20 @@
       <c r="E94">
         <v>164</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>215</v>
+      </c>
+      <c r="L94" t="s">
+        <v>516</v>
+      </c>
+      <c r="M94" t="s">
+        <v>502</v>
+      </c>
+      <c r="O94" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -2793,8 +4838,20 @@
       <c r="E95">
         <v>163</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>218</v>
+      </c>
+      <c r="L95" t="s">
+        <v>518</v>
+      </c>
+      <c r="M95" t="s">
+        <v>519</v>
+      </c>
+      <c r="O95" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -2810,8 +4867,20 @@
       <c r="E96">
         <v>176</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>220</v>
+      </c>
+      <c r="L96" t="s">
+        <v>342</v>
+      </c>
+      <c r="M96" t="s">
+        <v>445</v>
+      </c>
+      <c r="O96" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>198</v>
       </c>
@@ -2827,8 +4896,20 @@
       <c r="E97">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>222</v>
+      </c>
+      <c r="L97" t="s">
+        <v>342</v>
+      </c>
+      <c r="M97" t="s">
+        <v>392</v>
+      </c>
+      <c r="O97" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>200</v>
       </c>
@@ -2844,8 +4925,20 @@
       <c r="E98">
         <v>108</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>224</v>
+      </c>
+      <c r="L98" t="s">
+        <v>523</v>
+      </c>
+      <c r="M98" t="s">
+        <v>389</v>
+      </c>
+      <c r="O98" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>202</v>
       </c>
@@ -2861,8 +4954,23 @@
       <c r="E99">
         <v>122</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>227</v>
+      </c>
+      <c r="L99" t="s">
+        <v>525</v>
+      </c>
+      <c r="M99" t="s">
+        <v>526</v>
+      </c>
+      <c r="N99" t="s">
+        <v>273</v>
+      </c>
+      <c r="O99" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -2878,8 +4986,20 @@
       <c r="E100">
         <v>122</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>229</v>
+      </c>
+      <c r="L100" t="s">
+        <v>528</v>
+      </c>
+      <c r="M100" t="s">
+        <v>529</v>
+      </c>
+      <c r="O100" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>221</v>
       </c>
@@ -2895,8 +5015,20 @@
       <c r="E101">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>231</v>
+      </c>
+      <c r="L101" t="s">
+        <v>528</v>
+      </c>
+      <c r="M101" t="s">
+        <v>531</v>
+      </c>
+      <c r="O101" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -2912,8 +5044,20 @@
       <c r="E102">
         <v>178</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>234</v>
+      </c>
+      <c r="L102" t="s">
+        <v>533</v>
+      </c>
+      <c r="M102" t="s">
+        <v>534</v>
+      </c>
+      <c r="O102" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>225</v>
       </c>
@@ -2929,8 +5073,20 @@
       <c r="E103">
         <v>191</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>237</v>
+      </c>
+      <c r="L103" t="s">
+        <v>536</v>
+      </c>
+      <c r="M103" t="s">
+        <v>537</v>
+      </c>
+      <c r="O103" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>230</v>
       </c>
@@ -2946,8 +5102,20 @@
       <c r="E104">
         <v>191</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>239</v>
+      </c>
+      <c r="L104" t="s">
+        <v>539</v>
+      </c>
+      <c r="M104" t="s">
+        <v>357</v>
+      </c>
+      <c r="O104" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -2963,8 +5131,20 @@
       <c r="E105">
         <v>124</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>241</v>
+      </c>
+      <c r="L105" t="s">
+        <v>541</v>
+      </c>
+      <c r="M105" t="s">
+        <v>378</v>
+      </c>
+      <c r="O105" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -2980,8 +5160,20 @@
       <c r="E106">
         <v>161</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>244</v>
+      </c>
+      <c r="L106" t="s">
+        <v>543</v>
+      </c>
+      <c r="M106" t="s">
+        <v>544</v>
+      </c>
+      <c r="O106" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -2997,8 +5189,20 @@
       <c r="E107">
         <v>191</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>246</v>
+      </c>
+      <c r="L107" t="s">
+        <v>543</v>
+      </c>
+      <c r="M107" t="s">
+        <v>455</v>
+      </c>
+      <c r="O107" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>242</v>
       </c>
@@ -3014,8 +5218,20 @@
       <c r="E108">
         <v>191</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>248</v>
+      </c>
+      <c r="L108" t="s">
+        <v>547</v>
+      </c>
+      <c r="M108" t="s">
+        <v>548</v>
+      </c>
+      <c r="O108" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -3031,8 +5247,20 @@
       <c r="E109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>251</v>
+      </c>
+      <c r="L109" t="s">
+        <v>550</v>
+      </c>
+      <c r="M109" t="s">
+        <v>551</v>
+      </c>
+      <c r="O109" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>252</v>
       </c>
@@ -3048,8 +5276,20 @@
       <c r="E110">
         <v>164</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>253</v>
+      </c>
+      <c r="L110" t="s">
+        <v>553</v>
+      </c>
+      <c r="M110" t="s">
+        <v>554</v>
+      </c>
+      <c r="O110" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>254</v>
       </c>
@@ -3065,8 +5305,20 @@
       <c r="E111">
         <v>191</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>255</v>
+      </c>
+      <c r="L111" t="s">
+        <v>556</v>
+      </c>
+      <c r="M111" t="s">
+        <v>557</v>
+      </c>
+      <c r="O111" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>256</v>
       </c>
@@ -3081,6 +5333,18 @@
       </c>
       <c r="E112">
         <v>144</v>
+      </c>
+      <c r="K112" t="s">
+        <v>258</v>
+      </c>
+      <c r="L112" t="s">
+        <v>559</v>
+      </c>
+      <c r="M112" t="s">
+        <v>560</v>
+      </c>
+      <c r="O112" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
